--- a/src/CAPS/aim/pointwise/glyph/AttributeVocabulary.xlsx
+++ b/src/CAPS/aim/pointwise/glyph/AttributeVocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skarman/Pointwise/omega/consulting/MIT_AutoMesh/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F76811-B094-474D-B8E2-6E34BFB35D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37065F3F-89B2-5F4E-97B2-528DEADD49E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24060" yWindow="11200" windowWidth="23600" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1404,7 +1404,7 @@
         <v>99</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>103</v>
